--- a/data/trans_camb/P42C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R2-Edad-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>6.01120365335629</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-8.128078612104982</v>
+        <v>-8.128078612104972</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.444921450188858</v>
+        <v>-1.829137556290108</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-22.74644480868412</v>
+        <v>-23.59112887661099</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.37190532994932</v>
+        <v>13.49800912963823</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.022127990240439</v>
+        <v>4.291875167225422</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>0.08228997873746448</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1112687998506104</v>
+        <v>-0.1112687998506102</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01948836618285345</v>
+        <v>-0.03069721174877688</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3029038431885423</v>
+        <v>-0.3196977987563236</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2099552654358386</v>
+        <v>0.1922404208970487</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.06993756379133294</v>
+        <v>0.062577623352853</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>8.431414864682196</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3878746595268878</v>
+        <v>0.3878746595268989</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.920590464210699</v>
+        <v>2.980847223321509</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.246261463098604</v>
+        <v>-7.060015289672081</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.59327933276022</v>
+        <v>13.89524929809627</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.93355557605144</v>
+        <v>8.278070858791303</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.1200095884443692</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.005520862038565598</v>
+        <v>0.005520862038565756</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04012089725190121</v>
+        <v>0.04018450715445826</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1000390191887399</v>
+        <v>-0.09640169861643237</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2188648756318033</v>
+        <v>0.2050689663872632</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1181271790730697</v>
+        <v>0.1239633897277777</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>8.011118846895481</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.211882011076461</v>
+        <v>3.211882011076483</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.950162858871959</v>
+        <v>2.711963230075718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.13135412900207</v>
+        <v>-2.118255870267851</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.06097157973834</v>
+        <v>12.74948430363635</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.862856800199093</v>
+        <v>8.464700280142035</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.1119689688850865</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.04489149690996729</v>
+        <v>0.0448914969099676</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03918905721898682</v>
+        <v>0.0339094520611161</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02814827506280169</v>
+        <v>-0.02967508694814251</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1893858492701624</v>
+        <v>0.1851965627934413</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1282469933739818</v>
+        <v>0.1224967312625956</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>12.50680420269258</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-6.310012831948497</v>
+        <v>-6.310012831948519</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.003756993162657</v>
+        <v>7.178823291398813</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.42947368787059</v>
+        <v>-11.71297587103457</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.27545421994718</v>
+        <v>17.77500455839652</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8287385242159779</v>
+        <v>-0.591081420550112</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.1705611413895091</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.08605259771859873</v>
+        <v>-0.08605259771859902</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09216715609425268</v>
+        <v>0.09459201739647326</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1487879921536313</v>
+        <v>-0.1561188471673874</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2469452013263969</v>
+        <v>0.2564660366148396</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.011650463274372</v>
+        <v>-0.01004704478945009</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>4.038838886944185</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-4.875300272298166</v>
+        <v>-4.875300272298155</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.177381447951493</v>
+        <v>-1.697212417375725</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.597276112016871</v>
+        <v>-9.572180637788826</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.298048178743306</v>
+        <v>9.63890808157077</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4783548845772755</v>
+        <v>0.5467516121165643</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.04838274134084066</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.05840302092664089</v>
+        <v>-0.05840302092664076</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01293489352633011</v>
+        <v>-0.01950701377393304</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1105233794156658</v>
+        <v>-0.1101523566349544</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1172500961116424</v>
+        <v>0.1192949737472491</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.005601414766123066</v>
+        <v>0.006847612545870109</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.2277155677655682</v>
+        <v>0.0738560501039788</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.137945336452146</v>
+        <v>-7.047978424915412</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.543798733129</v>
+        <v>12.10238988970192</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.756654835454281</v>
+        <v>4.437030227064922</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.002555944449774853</v>
+        <v>0.001139898226398429</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.08210364122689566</v>
+        <v>-0.08062707516214432</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1418190500357421</v>
+        <v>0.1519318852699633</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.04639898828281825</v>
+        <v>0.05475852618015719</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>9.50604071693537</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-0.3743950323851331</v>
+        <v>-0.3743950323851553</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>5.031490136826646</v>
+        <v>4.481446855410074</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.922144621005258</v>
+        <v>-5.437615441304937</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>15.10898384654662</v>
+        <v>14.90403111876318</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.608556771734553</v>
+        <v>5.543045595916283</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>0.1074921880771658</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.004233575516313762</v>
+        <v>-0.004233575516314013</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.05535250354909224</v>
+        <v>0.05060373209423018</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06437405530021109</v>
+        <v>-0.05982560324637059</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1805199850790327</v>
+        <v>0.1799977655351641</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.06661318157830719</v>
+        <v>0.06526588899637453</v>
       </c>
     </row>
     <row r="46">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.231247164710942</v>
+        <v>6.399391663767131</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.656709098766053</v>
+        <v>-2.543356158869987</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>10.61823414970162</v>
+        <v>10.79536720603247</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.846658763170562</v>
+        <v>2.069763759739539</v>
       </c>
     </row>
     <row r="49">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.07932290858184228</v>
+        <v>0.08236764385884023</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.03403789834136281</v>
+        <v>-0.03296880670347015</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1419971458612461</v>
+        <v>0.1443400332646251</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.02468668811122823</v>
+        <v>0.02748722796674787</v>
       </c>
     </row>
     <row r="52">
